--- a/var_info/indv_panel_var_info/ALP_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/ALP_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488BA720-7B45-694A-A2CC-98089A26583A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DBA1FD-1E67-FF4F-AC11-3FC63E1863D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$126</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="219">
   <si>
     <t>ord</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1527,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1543,7 @@
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1584,10 +1587,13 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1624,8 +1630,11 @@
       <c r="M2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1662,8 +1671,11 @@
       <c r="M3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1712,11 @@
       <c r="M4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1738,8 +1753,11 @@
       <c r="M5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1776,8 +1794,11 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1814,8 +1835,11 @@
       <c r="M7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1852,8 +1876,11 @@
       <c r="M8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1890,8 +1917,11 @@
       <c r="M9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1928,8 +1958,11 @@
       <c r="M10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1966,8 +1999,11 @@
       <c r="M11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2004,8 +2040,11 @@
       <c r="M12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2042,8 +2081,11 @@
       <c r="M13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2080,8 +2122,11 @@
       <c r="M14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2118,8 +2163,11 @@
       <c r="M15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2156,8 +2204,11 @@
       <c r="M16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2245,11 @@
       <c r="M17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2232,8 +2286,11 @@
       <c r="M18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2270,8 +2327,11 @@
       <c r="M19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2308,8 +2368,11 @@
       <c r="M20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2409,11 @@
       <c r="M21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2384,8 +2450,11 @@
       <c r="M22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2422,8 +2491,11 @@
       <c r="M23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2460,8 +2532,11 @@
       <c r="M24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2498,8 +2573,11 @@
       <c r="M25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2536,8 +2614,11 @@
       <c r="M26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2574,8 +2655,11 @@
       <c r="M27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2612,8 +2696,11 @@
       <c r="M28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2650,8 +2737,11 @@
       <c r="M29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2688,8 +2778,11 @@
       <c r="M30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2726,8 +2819,11 @@
       <c r="M31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2764,8 +2860,11 @@
       <c r="M32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2802,8 +2901,11 @@
       <c r="M33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2840,8 +2942,11 @@
       <c r="M34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2878,8 +2983,11 @@
       <c r="M35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2916,8 +3024,11 @@
       <c r="M36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2954,8 +3065,11 @@
       <c r="M37" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="M38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -3030,8 +3147,11 @@
       <c r="M39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -3068,8 +3188,11 @@
       <c r="M40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -3106,8 +3229,11 @@
       <c r="M41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -3144,8 +3270,11 @@
       <c r="M42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -3182,8 +3311,11 @@
       <c r="M43" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -3220,8 +3352,11 @@
       <c r="M44" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -3258,8 +3393,11 @@
       <c r="M45" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -3296,8 +3434,11 @@
       <c r="M46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -3334,8 +3475,11 @@
       <c r="M47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -3372,8 +3516,11 @@
       <c r="M48" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -3410,8 +3557,11 @@
       <c r="M49" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3448,8 +3598,11 @@
       <c r="M50" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3486,8 +3639,11 @@
       <c r="M51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3524,8 +3680,11 @@
       <c r="M52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3562,8 +3721,11 @@
       <c r="M53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3600,8 +3762,11 @@
       <c r="M54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -3638,8 +3803,11 @@
       <c r="M55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3676,8 +3844,11 @@
       <c r="M56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3714,8 +3885,11 @@
       <c r="M57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3752,8 +3926,11 @@
       <c r="M58" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -3790,8 +3967,11 @@
       <c r="M59" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -3828,8 +4008,11 @@
       <c r="M60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -3866,8 +4049,11 @@
       <c r="M61" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3904,8 +4090,11 @@
       <c r="M62" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3942,8 +4131,11 @@
       <c r="M63" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3980,8 +4172,11 @@
       <c r="M64" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -4018,8 +4213,11 @@
       <c r="M65" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4254,11 @@
       <c r="M66" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -4094,8 +4295,11 @@
       <c r="M67" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -4132,8 +4336,11 @@
       <c r="M68" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -4170,8 +4377,11 @@
       <c r="M69" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4418,11 @@
       <c r="M70" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -4246,8 +4459,11 @@
       <c r="M71" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -4284,8 +4500,11 @@
       <c r="M72" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -4322,8 +4541,11 @@
       <c r="M73" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -4360,8 +4582,11 @@
       <c r="M74" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -4398,8 +4623,11 @@
       <c r="M75" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4436,8 +4664,11 @@
       <c r="M76" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -4474,8 +4705,11 @@
       <c r="M77" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -4512,8 +4746,11 @@
       <c r="M78" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -4550,8 +4787,11 @@
       <c r="M79" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4588,8 +4828,11 @@
       <c r="M80" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4626,8 +4869,11 @@
       <c r="M81" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4664,8 +4910,11 @@
       <c r="M82" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -4702,8 +4951,11 @@
       <c r="M83" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4740,8 +4992,11 @@
       <c r="M84" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -4778,8 +5033,11 @@
       <c r="M85" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -4816,8 +5074,11 @@
       <c r="M86" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -4848,8 +5109,11 @@
       <c r="J87">
         <v>101</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -4880,8 +5144,11 @@
       <c r="J88">
         <v>101</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -4912,8 +5179,11 @@
       <c r="J89">
         <v>101</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -4944,8 +5214,11 @@
       <c r="J90">
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -4976,8 +5249,11 @@
       <c r="J91">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -5008,8 +5284,11 @@
       <c r="J92">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -5040,8 +5319,11 @@
       <c r="J93">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -5072,8 +5354,11 @@
       <c r="J94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -5104,8 +5389,11 @@
       <c r="J95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5424,11 @@
       <c r="J96">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -5168,8 +5459,11 @@
       <c r="J97">
         <v>101</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -5200,8 +5494,11 @@
       <c r="J98">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -5232,8 +5529,11 @@
       <c r="J99">
         <v>101</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -5264,8 +5564,11 @@
       <c r="J100">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -5296,8 +5599,11 @@
       <c r="J101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -5328,8 +5634,11 @@
       <c r="J102">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -5360,8 +5669,11 @@
       <c r="J103">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -5392,8 +5704,11 @@
       <c r="J104">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -5424,8 +5739,11 @@
       <c r="J105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -5456,8 +5774,11 @@
       <c r="J106">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -5494,8 +5815,11 @@
       <c r="M107" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -5532,8 +5856,11 @@
       <c r="M108" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -5570,8 +5897,11 @@
       <c r="M109" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -5608,8 +5938,11 @@
       <c r="M110" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -5646,8 +5979,11 @@
       <c r="M111" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -5684,8 +6020,11 @@
       <c r="M112" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -5722,8 +6061,11 @@
       <c r="M113" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -5760,8 +6102,11 @@
       <c r="M114" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -5798,8 +6143,11 @@
       <c r="M115" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -5836,8 +6184,11 @@
       <c r="M116" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -5874,8 +6225,11 @@
       <c r="M117" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -5912,8 +6266,11 @@
       <c r="M118" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -5950,8 +6307,11 @@
       <c r="M119" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -5988,8 +6348,11 @@
       <c r="M120" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -6026,8 +6389,11 @@
       <c r="M121" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -6064,8 +6430,11 @@
       <c r="M122" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -6102,8 +6471,11 @@
       <c r="M123" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -6140,8 +6512,11 @@
       <c r="M124" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -6178,8 +6553,11 @@
       <c r="M125" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -6215,6 +6593,9 @@
       </c>
       <c r="M126" t="s">
         <v>54</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6224,10 +6605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6236,7 +6617,7 @@
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -6280,10 +6661,13 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6299,11 +6683,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -6319,11 +6703,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -6339,11 +6723,11 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -6359,11 +6743,11 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -6379,11 +6763,11 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -6399,11 +6783,11 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -6419,11 +6803,11 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6439,11 +6823,11 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -6459,11 +6843,11 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -6479,11 +6863,11 @@
       <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6499,11 +6883,11 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -6519,11 +6903,11 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6539,11 +6923,11 @@
       <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -6559,11 +6943,11 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -6579,11 +6963,11 @@
       <c r="E16" t="s">
         <v>3</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -6599,11 +6983,11 @@
       <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -6619,11 +7003,11 @@
       <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -6639,11 +7023,11 @@
       <c r="E19" t="s">
         <v>3</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -6659,11 +7043,11 @@
       <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6679,11 +7063,11 @@
       <c r="E21" t="s">
         <v>196</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6699,11 +7083,11 @@
       <c r="E22" t="s">
         <v>196</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6719,11 +7103,11 @@
       <c r="E23" t="s">
         <v>196</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -6739,11 +7123,11 @@
       <c r="E24" t="s">
         <v>196</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -6759,11 +7143,11 @@
       <c r="E25" t="s">
         <v>196</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -6779,11 +7163,11 @@
       <c r="E26" t="s">
         <v>196</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -6799,11 +7183,11 @@
       <c r="E27" t="s">
         <v>196</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -6819,11 +7203,11 @@
       <c r="E28" t="s">
         <v>196</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -6839,11 +7223,11 @@
       <c r="E29" t="s">
         <v>196</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -6859,7 +7243,7 @@
       <c r="E30" t="s">
         <v>196</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6870,10 +7254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6881,7 +7265,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -6925,10 +7309,13 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6944,11 +7331,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -6964,11 +7351,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -6984,11 +7371,11 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -7004,11 +7391,11 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -7024,11 +7411,11 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -7044,11 +7431,11 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -7064,11 +7451,11 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7084,11 +7471,11 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7104,11 +7491,11 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -7124,11 +7511,11 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7144,11 +7531,11 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -7164,11 +7551,11 @@
       <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -7184,11 +7571,11 @@
       <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -7204,11 +7591,11 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -7224,11 +7611,11 @@
       <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -7244,11 +7631,11 @@
       <c r="E17" t="s">
         <v>4</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -7264,11 +7651,11 @@
       <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -7284,11 +7671,11 @@
       <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7304,11 +7691,11 @@
       <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -7324,11 +7711,11 @@
       <c r="E21" t="s">
         <v>45</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -7344,11 +7731,11 @@
       <c r="E22" t="s">
         <v>45</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7364,11 +7751,11 @@
       <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -7384,11 +7771,11 @@
       <c r="E24" t="s">
         <v>45</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -7404,11 +7791,11 @@
       <c r="E25" t="s">
         <v>45</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -7424,11 +7811,11 @@
       <c r="E26" t="s">
         <v>45</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -7444,11 +7831,11 @@
       <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -7464,11 +7851,11 @@
       <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -7484,11 +7871,11 @@
       <c r="E29" t="s">
         <v>45</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -7504,11 +7891,11 @@
       <c r="E30" t="s">
         <v>45</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -7524,11 +7911,11 @@
       <c r="E31" t="s">
         <v>45</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -7544,11 +7931,11 @@
       <c r="E32" t="s">
         <v>45</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -7564,11 +7951,11 @@
       <c r="E33" t="s">
         <v>45</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -7584,11 +7971,11 @@
       <c r="E34" t="s">
         <v>45</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -7604,11 +7991,11 @@
       <c r="E35" t="s">
         <v>45</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -7624,11 +8011,11 @@
       <c r="E36" t="s">
         <v>45</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -7644,11 +8031,11 @@
       <c r="E37" t="s">
         <v>45</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -7664,11 +8051,11 @@
       <c r="E38" t="s">
         <v>45</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -7684,7 +8071,7 @@
       <c r="E39" t="s">
         <v>45</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7695,10 +8082,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7707,7 +8094,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -7751,10 +8138,13 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -7770,11 +8160,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -7790,11 +8180,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -7810,11 +8200,11 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -7830,11 +8220,11 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -7850,11 +8240,11 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -7870,11 +8260,11 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -7890,11 +8280,11 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7910,11 +8300,11 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7930,11 +8320,11 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -7950,11 +8340,11 @@
       <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7970,11 +8360,11 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -7990,11 +8380,11 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -8010,11 +8400,11 @@
       <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -8030,11 +8420,11 @@
       <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -8050,11 +8440,11 @@
       <c r="E16" t="s">
         <v>5</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -8070,11 +8460,11 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -8090,11 +8480,11 @@
       <c r="E18" t="s">
         <v>5</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -8110,11 +8500,11 @@
       <c r="E19" t="s">
         <v>5</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -8130,7 +8520,7 @@
       <c r="E20" t="s">
         <v>198</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8141,10 +8531,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8152,7 +8542,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8196,10 +8586,13 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -8227,11 +8620,14 @@
       <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8259,11 +8655,14 @@
       <c r="M3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8291,11 +8690,14 @@
       <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -8323,11 +8725,14 @@
       <c r="M5" t="s">
         <v>54</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -8355,11 +8760,14 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -8387,11 +8795,14 @@
       <c r="M7" t="s">
         <v>54</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -8422,11 +8833,14 @@
       <c r="M8" t="s">
         <v>54</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -8457,11 +8871,14 @@
       <c r="M9" t="s">
         <v>54</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8492,11 +8909,14 @@
       <c r="M10" t="s">
         <v>54</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -8527,11 +8947,14 @@
       <c r="M11" t="s">
         <v>54</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -8562,11 +8985,14 @@
       <c r="M12" t="s">
         <v>54</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -8597,11 +9023,14 @@
       <c r="M13" t="s">
         <v>54</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -8632,11 +9061,14 @@
       <c r="M14" t="s">
         <v>54</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -8667,7 +9099,10 @@
       <c r="M15" t="s">
         <v>54</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8680,7 +9115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A444EEBB-772D-DC44-A665-452BD8C1BF55}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
